--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hebib\PNT\Final Bootcamp\BlackList_Framework_Final_Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5CF9A0-C6DC-4935-81FD-B45C3D288E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C782A49D-19D2-4CD6-924E-755CFC77F3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -43,6 +43,21 @@
   </si>
   <si>
     <t>id005</t>
+  </si>
+  <si>
+    <t>Imac</t>
+  </si>
+  <si>
+    <t>Iphone 13 Pro Max</t>
+  </si>
+  <si>
+    <t>Air Pods</t>
+  </si>
+  <si>
+    <t>Maccbook Pro</t>
+  </si>
+  <si>
+    <t>Apple watch</t>
   </si>
 </sst>
 </file>
@@ -468,31 +483,41 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
